--- a/biology/Botanique/Vicia_pyrenaica/Vicia_pyrenaica.xlsx
+++ b/biology/Botanique/Vicia_pyrenaica/Vicia_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vicia pyrenaica, la Vesce des Pyrénées est une plante herbacée vivace de la famille des Fabaceae, du genre Vicia.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petite plante rampante (5 à 30 cm) dont les feuilles composées supérieures comptent 8 à 12 folioles, les inférieures, seulement 2 à 4. Grandes fleurs (16 à 25 mm de long), rougeâtres, solitaires, disposées chacune à l'aisselle d'une feuille. Les 5 pièces florales sont séparées. Floraison : juin à septembre.
 </t>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pelouses rocailleuses, éboulis, alluvions des torrents de montagne (altitude de 1 400 à 2 500 m)[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pelouses rocailleuses, éboulis, alluvions des torrents de montagne (altitude de 1 400 à 2 500 m).
 Une espèce voisine, endémique des Pyrénées elle aussi, Vicia argentea Lapeyr., 1813 (la vesce argentée), possède des fleurs blanches striées de pourpre et des poils blancs sur les folioles qui lui donnent son aspect argenté.
 </t>
         </is>
